--- a/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13608" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13644" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -57,6 +57,103 @@
     <t>Id</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属进程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外网端口</t>
+    </r>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+  </si>
+  <si>
+    <t>UnitCache</t>
+  </si>
+  <si>
+    <t>MainCity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
     <t>所属进程</t>
   </si>
   <si>
@@ -72,34 +169,65 @@
     <t>外网端口</t>
   </si>
   <si>
-    <t>Realm</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
-  </si>
-  <si>
     <t>Robot</t>
   </si>
   <si>
     <t>Robot01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属进程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外网端口</t>
+    </r>
   </si>
   <si>
     <t>RouterManager</t>
@@ -130,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +269,19 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -159,9 +299,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -307,6 +453,18 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -826,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,137 +996,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,90 +1138,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1117,7 +1281,112 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="JetBrains Mono"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1214,13 +1483,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Luban" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="firstColumn" dxfId="17"/>
+      <tableStyleElement type="lastColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1229,6 +1498,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="##var" dataDxfId="0"/>
+    <tableColumn id="2" name="id" dataDxfId="1"/>
+    <tableColumn id="3" name="process" dataDxfId="2"/>
+    <tableColumn id="4" name="zone" dataDxfId="3"/>
+    <tableColumn id="5" name="scene_type" dataDxfId="4"/>
+    <tableColumn id="6" name="name" dataDxfId="5"/>
+    <tableColumn id="7" name="outer_port" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="##var" dataDxfId="7"/>
+    <tableColumn id="2" name="id" dataDxfId="8"/>
+    <tableColumn id="3" name="process" dataDxfId="9"/>
+    <tableColumn id="4" name="zone" dataDxfId="10"/>
+    <tableColumn id="5" name="scene_type" dataDxfId="11"/>
+    <tableColumn id="6" name="name" dataDxfId="12"/>
+    <tableColumn id="7" name="outer_port" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,417 +1819,321 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.1296296296296" style="32" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="32" customWidth="1"/>
-    <col min="3" max="4" width="12.6296296296296" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.3796296296296" style="33" customWidth="1"/>
-    <col min="7" max="7" width="17.1111111111111" style="33" customWidth="1"/>
-    <col min="8" max="8" width="13.1296296296296" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="21.1296296296296" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="35" customWidth="1"/>
+    <col min="3" max="4" width="12.6296296296296" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="35" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.1111111111111" style="35" customWidth="1"/>
+    <col min="8" max="8" width="13.1296296296296" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:7">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" ht="18.75" spans="1:7">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" ht="17.4" spans="1:7">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="35">
         <v>30002</v>
       </c>
     </row>
-    <row r="6" s="31" customFormat="1" ht="18" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
+    <row r="6" s="35" customFormat="1" spans="2:7">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="35">
         <v>30003</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25">
+    <row r="7" spans="2:7">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="35">
         <v>30004</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22">
+    <row r="8" spans="2:6">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" ht="18" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28">
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35">
+        <v>1</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" ht="18" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="35">
         <v>6</v>
       </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="35">
+        <v>1</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" ht="18" spans="1:7">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="18" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" ht="18" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" ht="18" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" ht="14.4" spans="1:7">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" ht="14.4" spans="1:7">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" ht="14.4" spans="1:7">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" ht="14.4" spans="1:7">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" ht="14.4" spans="1:7">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" ht="14.4" spans="1:7">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" ht="14.4" spans="1:7">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" ht="14.4" spans="1:7">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" ht="14.4" spans="1:7">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:7">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:7">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:7">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" ht="14.4" spans="1:7">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" ht="14.4" spans="1:7">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" ht="14.4" spans="1:7">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" ht="14.4" spans="1:7">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-    </row>
-    <row r="31" ht="14.4" spans="1:7">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="35">
+        <v>7</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="35">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="35">
+        <v>8</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
+      <c r="D12" s="35">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="35">
+        <v>9</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="35">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="35">
+        <v>10</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="35">
+        <v>11</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="35">
+        <v>12</v>
+      </c>
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1943,151 +2148,151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.2222222222222" style="32" customWidth="1"/>
-    <col min="2" max="2" width="8.33333333333333" style="32" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.8888888888889" style="33" customWidth="1"/>
-    <col min="5" max="5" width="17.1111111111111" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12.2222222222222" style="33" customWidth="1"/>
-    <col min="7" max="7" width="17.1111111111111" style="33" customWidth="1"/>
-    <col min="8" max="8" width="13.1296296296296" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="12.2222222222222" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.8888888888889" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.2222222222222" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.1111111111111" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.1296296296296" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" ht="18.75" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
+      <c r="C4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24">
         <v>200</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" s="31" customFormat="1" ht="18" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="18" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" ht="18" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" ht="18" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="18" ht="14.4" spans="1:6">
       <c r="A18"/>
@@ -2181,11 +2386,11 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.22222222222222" style="3" customWidth="1"/>
@@ -2197,197 +2402,200 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.4" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="14.4" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="14.4" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" ht="18.75" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" spans="1:7">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>300</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5">
         <v>30300</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>301</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5">
         <v>30301</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
         <v>302</v>
       </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5">
         <v>30302</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
         <v>303</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5">
         <v>30303</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
         <v>304</v>
       </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="29">
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5">
         <v>30304</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Config/Excel/Datas/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13644" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13644"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Chat</t>
+  </si>
+  <si>
+    <t>Friend</t>
   </si>
   <si>
     <t>所属进程</t>
@@ -1501,8 +1504,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17"/>
   <tableColumns count="7">
     <tableColumn id="1" name="##var" dataDxfId="0"/>
     <tableColumn id="2" name="id" dataDxfId="1"/>
@@ -1819,10 +1822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="6"/>
@@ -2125,6 +2128,23 @@
       </c>
       <c r="F16" s="35" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="35">
+        <v>13</v>
+      </c>
+      <c r="C17" s="35">
+        <v>1</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2224,19 +2244,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
@@ -2251,10 +2271,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="25"/>
     </row>
@@ -2386,7 +2406,7 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2467,22 +2487,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>300</v>
@@ -2494,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5">
         <v>30300</v>
@@ -2515,10 +2535,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5">
         <v>30301</v>
@@ -2536,10 +2556,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5">
         <v>30302</v>
@@ -2557,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5">
         <v>30303</v>
@@ -2578,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="5">
         <v>30304</v>
